--- a/data/trans_camb/POLIPATOLOGIA_5-Clase-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_5-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-0.1349060187534667</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>4.469439146594644</v>
+        <v>4.469439146594643</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-1.551339788908309</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.449217120181193</v>
+        <v>-4.455520190676554</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.465648500619201</v>
+        <v>-1.141877894985062</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7591872625885143</v>
+        <v>0.6909358415391367</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.923983861358457</v>
+        <v>-3.673250012698536</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.651769746275282</v>
+        <v>-3.562236956260636</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.9936497407797941</v>
+        <v>0.7615185338647509</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.09539893723746</v>
+        <v>-3.188313667843063</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.306235376549063</v>
+        <v>-1.40972385920532</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.905593910746863</v>
+        <v>1.958294692494934</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.081740711376517</v>
+        <v>-1.240592032783525</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.661040160789915</v>
+        <v>3.729803640815351</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.639846103774516</v>
+        <v>5.648126483490628</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.445027833402749</v>
+        <v>2.834560910920465</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.47442805771517</v>
+        <v>3.462204946250995</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.626252261345853</v>
+        <v>7.522383892741523</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1375099869833702</v>
+        <v>0.1276222629275128</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.890131641457681</v>
+        <v>2.613814686206775</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.778189394370712</v>
+        <v>5.947088210206549</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.02845922238921381</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9428546168902959</v>
+        <v>0.9428546168902956</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.4420296376736033</v>
@@ -783,28 +783,28 @@
         <v>-1</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.41212010782734</v>
+        <v>-0.3619487316175364</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1249570075517006</v>
+        <v>0.07943933529315048</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6176725885182331</v>
+        <v>-0.5577358946785127</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5643781824683058</v>
+        <v>-0.5283218514686717</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1094275301949711</v>
+        <v>0.08461597400997926</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7226362339678257</v>
+        <v>-0.7337989964773869</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2978783255349212</v>
+        <v>-0.3407606827024565</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.3730213822088722</v>
+        <v>0.375190532972728</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.310390677677152</v>
+        <v>-0.3527519286964701</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.122222717594479</v>
+        <v>2.209927576102209</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.361953052390716</v>
+        <v>3.195689338505774</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.118758045162558</v>
+        <v>1.04637204898753</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.296717609103814</v>
+        <v>1.132117439642508</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.519997203399784</v>
+        <v>2.568728233149954</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07603238953353217</v>
+        <v>0.06479061750189863</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.101675176586622</v>
+        <v>0.9858112335538864</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.412089664480097</v>
+        <v>2.374729524723693</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-0.8298602412490801</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4.701010098484283</v>
+        <v>4.701010098484282</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.076838603576465</v>
@@ -869,7 +869,7 @@
         <v>0.4248316895961779</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>8.414900595947067</v>
+        <v>8.414900595947064</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.2310121256909454</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.080859521111247</v>
+        <v>-2.285661073592246</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.726125501152117</v>
+        <v>-2.871299944617093</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.240058700280089</v>
+        <v>2.162084406394968</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.903141669527506</v>
+        <v>-1.941833587637745</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.802496612332034</v>
+        <v>-2.321908079228867</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.53283062133487</v>
+        <v>5.336248660609985</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.767551583551444</v>
+        <v>-1.597340204951803</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.296347091442708</v>
+        <v>-2.042378760307413</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>4.189293825234068</v>
+        <v>4.132436025905019</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.973229448310073</v>
+        <v>1.643215594171628</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.070747920185157</v>
+        <v>1.097713750028435</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.279837845539998</v>
+        <v>7.31605811259723</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.68331937448104</v>
+        <v>4.28614202351129</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.734544166083237</v>
+        <v>3.755452114905869</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>11.58560434954041</v>
+        <v>12.06941900746981</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.901113802117709</v>
+        <v>2.109377335332015</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.501891732087226</v>
+        <v>1.818528356202129</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>8.099832325783074</v>
+        <v>8.509136117957096</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.1106434663392548</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>2.191582675296313</v>
+        <v>2.191582675296312</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.07560813235807685</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6690144984518172</v>
+        <v>-0.7253157729193073</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8480737729433986</v>
+        <v>-0.8311491844256574</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.5345823020936201</v>
+        <v>0.5321683623092197</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3821653484730837</v>
+        <v>-0.396981423922294</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5655537627205403</v>
+        <v>-0.4918472063196235</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.711298351262233</v>
+        <v>0.9267536428842841</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.44611126732414</v>
+        <v>-0.4180009376009605</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5864873561927683</v>
+        <v>-0.5165950474339635</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.9699158117965078</v>
+        <v>0.8846039987059605</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.847377694548161</v>
+        <v>1.375538558426843</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.9652851049780996</v>
+        <v>1.104636304034801</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5.849549476686224</v>
+        <v>6.158819607362494</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.858798317437997</v>
+        <v>1.804139929479752</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.393283299403825</v>
+        <v>1.647377844043398</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>4.807949969104159</v>
+        <v>5.321332798707556</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8923628124733883</v>
+        <v>1.035281743548316</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6911623164683813</v>
+        <v>0.8722239822429438</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>3.860331501218949</v>
+        <v>3.77786257326395</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-0.5672476123536927</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7.352902296596215</v>
+        <v>7.352902296596212</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-2.052527363150762</v>
@@ -1092,7 +1092,7 @@
         <v>1.089632767479137</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>8.79998028284473</v>
+        <v>8.799980282844732</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.9802262161053341</v>
+        <v>-0.906713787568562</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.775616183163713</v>
+        <v>-2.660905686319438</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.473417995836028</v>
+        <v>4.52507426322739</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-7.714405387485823</v>
+        <v>-7.776293239143799</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.607555586827815</v>
+        <v>-0.8751786878956496</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>5.380337168618459</v>
+        <v>3.740852301662081</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.480996586596077</v>
+        <v>-1.505746246582933</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.193518253239972</v>
+        <v>-1.394746190845243</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>5.985387098505958</v>
+        <v>6.036916206189423</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.776266408666523</v>
+        <v>3.816789652738789</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.375282449209108</v>
+        <v>1.78805277297657</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.932833406953</v>
+        <v>10.82672692437186</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.806510128100295</v>
+        <v>2.853825924049048</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>13.23456577240475</v>
+        <v>13.81288769336048</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>18.06410049984949</v>
+        <v>17.28546927405546</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.893912417541979</v>
+        <v>3.114655749213933</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.561183138946383</v>
+        <v>3.477717806330967</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>11.57402852267242</v>
+        <v>11.60443149904601</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.2421875239720679</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1.955930015426953</v>
+        <v>1.955930015426954</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2446410290168546</v>
+        <v>-0.224497324079781</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6080135895372245</v>
+        <v>-0.6248722480300539</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.8427404757227877</v>
+        <v>0.9307247659229778</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6399315423847662</v>
+        <v>-0.6584944614927898</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.197884328553472</v>
+        <v>-0.1340001564777373</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3348370426755609</v>
+        <v>0.2680682798643866</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2637888779366746</v>
+        <v>-0.2651430358920863</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2350793897246728</v>
+        <v>-0.2665066901371936</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.9990014243143929</v>
+        <v>0.9861573536251147</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.545363500792067</v>
+        <v>1.581701452910385</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.6560336669076215</v>
+        <v>0.8809034667532563</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>4.837004511803666</v>
+        <v>4.849878553008737</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.567983619618622</v>
+        <v>0.5995006616841216</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.277484468115512</v>
+        <v>2.570803692072868</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.381522343316423</v>
+        <v>3.363626700339725</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8638299659090899</v>
+        <v>0.9051267323310508</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.116746691010981</v>
+        <v>1.036741112587237</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>3.531848695989487</v>
+        <v>3.317666250717083</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>0.9337272730029406</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>5.953337044878629</v>
+        <v>5.95333704487863</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1.224017612567257</v>
@@ -1306,7 +1306,7 @@
         <v>0.06975305924964981</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>6.024885614734793</v>
+        <v>6.024885614734797</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.1916916789870445</v>
+        <v>-0.3688748387377561</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.180502716485109</v>
+        <v>-2.204642214348526</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.085374226187067</v>
+        <v>3.943472037441684</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.801440569770291</v>
+        <v>-1.908247228016797</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.344495863963566</v>
+        <v>-1.752576920531288</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>3.232868141147683</v>
+        <v>3.564739417066857</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.3130573828642771</v>
+        <v>-0.342871648976486</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.389526075824343</v>
+        <v>-1.373973190914916</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>4.61804247992861</v>
+        <v>4.434558076700361</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.342569621546454</v>
+        <v>3.332929272583435</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9229266732072268</v>
+        <v>0.8501013273778317</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.846500057791247</v>
+        <v>7.950866143809122</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.136225491060454</v>
+        <v>3.226085999140985</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.40286426991272</v>
+        <v>3.400385649749139</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>8.331781678599425</v>
+        <v>8.33662634527621</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.620539144217666</v>
+        <v>2.736138697311731</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.367664811114849</v>
+        <v>1.443489424620164</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.703794515066235</v>
+        <v>7.612374041537183</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.1562369158117841</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.9961484960040881</v>
+        <v>0.9961484960040883</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.2438557980581568</v>
@@ -1411,7 +1411,7 @@
         <v>0.01389660390151175</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>1.200312213407412</v>
+        <v>1.200312213407413</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.04767468706380887</v>
+        <v>-0.08148451951315559</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.425245211183314</v>
+        <v>-0.4294442143883552</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.7671145736214799</v>
+        <v>0.7368099395080548</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2551847334292167</v>
+        <v>-0.2634364191632456</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1937601430212003</v>
+        <v>-0.2443538317776338</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4324869558365516</v>
+        <v>0.4496493890859974</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.06345043982296869</v>
+        <v>-0.06372461400884655</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2458523435328788</v>
+        <v>-0.2444782527223941</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.7921627177328164</v>
+        <v>0.7358399710002067</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.8766005793807728</v>
+        <v>0.9122793364515464</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2585085207819039</v>
+        <v>0.224042649092895</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.235888836929414</v>
+        <v>2.191918903041421</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.670598941702612</v>
+        <v>0.706012871039712</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7150248851424084</v>
+        <v>0.704743122227136</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.81429104415891</v>
+        <v>1.78347284365636</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.598328036577192</v>
+        <v>0.6359186204643267</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3057951838575788</v>
+        <v>0.334045060007155</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.758932621586119</v>
+        <v>1.759365914673368</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>1.51847751080739</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3.996898731613251</v>
+        <v>3.996898731613248</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>6.823063463131006</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.051803476292243</v>
+        <v>-3.900511758670718</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.210904001502713</v>
+        <v>-1.387740845810755</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.032010615489799</v>
+        <v>1.038493278642157</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.404247624565286</v>
+        <v>3.210034591293057</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>3.036371854780642</v>
+        <v>3.731161190476558</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>14.83130448132066</v>
+        <v>15.09191675541747</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.262258049907504</v>
+        <v>1.550073918633383</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.813434540905495</v>
+        <v>1.986544217425516</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>10.01706114515005</v>
+        <v>10.0823614204242</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.605320501835763</v>
+        <v>1.647240903393168</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.494760611936613</v>
+        <v>4.125161541830921</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.092604257183734</v>
+        <v>6.871042731007091</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10.21937290405763</v>
+        <v>10.18082410511845</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>9.902255729630332</v>
+        <v>10.14263817553096</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>21.17486367172443</v>
+        <v>21.31443657485739</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.920640894235677</v>
+        <v>5.996576617701129</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>6.375697554507749</v>
+        <v>6.413935935798845</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>14.45651228376906</v>
+        <v>14.63718110900795</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.3208680069097136</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.844580786152572</v>
+        <v>0.8445807861525715</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>1.010256803378461</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5966539743356454</v>
+        <v>-0.6011025211306983</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2058292031886309</v>
+        <v>-0.2233192401728372</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.1305068098620624</v>
+        <v>0.124088949008044</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.3873111307842649</v>
+        <v>0.3471589108272631</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.3444031528520602</v>
+        <v>0.425276084971709</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>1.702685336262173</v>
+        <v>1.7511362984908</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1671147106051149</v>
+        <v>0.2056901437862371</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.239920158533123</v>
+        <v>0.262733432654844</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>1.327294445969275</v>
+        <v>1.352782974446286</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4801001752593464</v>
+        <v>0.574457139298244</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.454811376344788</v>
+        <v>1.280170284078332</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.31346339655095</v>
+        <v>2.153144844503877</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.963259034803778</v>
+        <v>1.902985330371681</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.871698474214727</v>
+        <v>1.932500523606409</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>4.178218755645418</v>
+        <v>4.258357832866408</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.221067098617873</v>
+        <v>1.245483805316385</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.313925015907821</v>
+        <v>1.321257638055255</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>3.060521154051413</v>
+        <v>3.020908042585486</v>
       </c>
     </row>
     <row r="34">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.5514228700182577</v>
+        <v>-0.4902924069203498</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.6206406815815398</v>
+        <v>-0.6219808315551707</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>0.559774275709328</v>
+        <v>0.5555157350609857</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>2.770961957158216</v>
+        <v>2.601588748608082</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>1.55483298078987</v>
+        <v>1.630498618569757</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>7.532948562493649</v>
+        <v>7.632187128148367</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>2.116926662075671</v>
+        <v>2.185830520163599</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>0.961252752191436</v>
+        <v>1.264014051094948</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>5.990834460317844</v>
+        <v>6.140036226417748</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.193109510017617</v>
+        <v>2.164222231244455</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.571473783492906</v>
+        <v>1.367246771248714</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.749886995773384</v>
+        <v>5.26279338220655</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>8.021351941367644</v>
+        <v>7.884016717248171</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>6.79641693094614</v>
+        <v>6.846049673428027</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>12.76706775925499</v>
+        <v>13.03124849136919</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>6.463788022368459</v>
+        <v>6.399145535804787</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>5.225880691250297</v>
+        <v>5.314087179844329</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>10.26372308694366</v>
+        <v>10.38563299676989</v>
       </c>
     </row>
     <row r="37">
@@ -1853,22 +1853,22 @@
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>0.2878950012097531</v>
+        <v>0.2797096377603403</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.1473275150260165</v>
+        <v>0.1640360779393252</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7858988508963208</v>
+        <v>0.7989644920905298</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2736658072154646</v>
+        <v>0.273692557667141</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.1278070240815138</v>
+        <v>0.1605179558828947</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.7983327640210973</v>
+        <v>0.8006989703404873</v>
       </c>
     </row>
     <row r="39">
@@ -1882,22 +1882,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>1.116842279965331</v>
+        <v>1.083751252966147</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.9236852394802163</v>
+        <v>0.9680592827890037</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.818651256600919</v>
+        <v>1.79692382607649</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.104080833925767</v>
+        <v>1.07667848392288</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.8837308513967058</v>
+        <v>0.896012836333016</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.817766507785411</v>
+        <v>1.741250169428634</v>
       </c>
     </row>
     <row r="40">
@@ -1918,7 +1918,7 @@
         <v>0.1091478797395407</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>5.002577949335354</v>
+        <v>5.002577949335352</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>3.180803857767765</v>
@@ -1947,31 +1947,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.5114160260256564</v>
+        <v>-0.4772994727245873</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.7465309577990331</v>
+        <v>-0.7234396933423661</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>4.005457262058068</v>
+        <v>3.904033997100406</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1.709976368560242</v>
+        <v>1.782971657527851</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>1.636584564887486</v>
+        <v>1.779042271538156</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>8.397925082996048</v>
+        <v>8.352716661057134</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.884758422285348</v>
+        <v>1.003021681597299</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.7789844084733594</v>
+        <v>0.8041935522967095</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>6.720828059034536</v>
+        <v>6.71123910377982</v>
       </c>
     </row>
     <row r="42">
@@ -1982,31 +1982,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.243026627582455</v>
+        <v>1.328147423281414</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.9472495350646162</v>
+        <v>0.9876763218857175</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>6.041826818663365</v>
+        <v>6.13235953234298</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4.57154704274843</v>
+        <v>4.365129819951806</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>4.452571153958876</v>
+        <v>4.44072766208085</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>10.99295076468646</v>
+        <v>11.0563674449637</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.602113169170233</v>
+        <v>2.601038607454597</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>2.458293261850676</v>
+        <v>2.477404969120057</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>8.371203563195536</v>
+        <v>8.435381149246574</v>
       </c>
     </row>
     <row r="43">
@@ -2052,31 +2052,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1305136473048705</v>
+        <v>-0.1295312032262605</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1944636638075983</v>
+        <v>-0.1904402536076583</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.9974487090696922</v>
+        <v>0.9869572997894374</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.2288380967858899</v>
+        <v>0.2416000857609229</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.2323103945404625</v>
+        <v>0.2426824255860222</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>1.11234910493962</v>
+        <v>1.108181097474626</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1599212799762579</v>
+        <v>0.1838268098274371</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.140428095990646</v>
+        <v>0.1513464265710774</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>1.213681060600269</v>
+        <v>1.204954216844734</v>
       </c>
     </row>
     <row r="45">
@@ -2087,31 +2087,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.4165341785751232</v>
+        <v>0.4516234565222987</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.3154151423621104</v>
+        <v>0.3316539245755373</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.959812419043716</v>
+        <v>2.05809667092552</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.7565571595730953</v>
+        <v>0.7201134135701208</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.7368517845280389</v>
+        <v>0.7322243618978714</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.810663550057274</v>
+        <v>1.816241977000429</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.5546510087867876</v>
+        <v>0.5458758753901038</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.5192053066702497</v>
+        <v>0.5306593305392766</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.802561781407543</v>
+        <v>1.784500255739147</v>
       </c>
     </row>
     <row r="46">
